--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,34 +573,106 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>160</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100112052</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Albahaca</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>250</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>1300</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>1500</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M4" t="n">
         <v>1420</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>$/atado</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>1420</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,34 +645,106 @@
         </is>
       </c>
       <c r="J4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$/docena de matas</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100112052</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Albahaca</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>250</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>1300</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L5" t="n">
         <v>1500</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M5" t="n">
         <v>1420</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>$/atado</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Provincia de Diguillín</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>1420</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M5" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44687</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M5" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44692</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44687</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M5" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M5" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M5" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M4" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44692</v>
+        <v>44687</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44692</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M4" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M4" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M5" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M4" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M4" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44687</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44687</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44687</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44692</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M5" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
         <v>3000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M4" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Albahaca.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44692</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>3000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>3250</v>
+        <v>1420</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/docena de matas</t>
+          <t>$/atado</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>542</v>
+        <v>1420</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44687</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M5" t="n">
-        <v>1420</v>
+        <v>3250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/atado</t>
+          <t>$/docena de matas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1420</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
